--- a/DesignDocs/VariableData/PC.xlsx
+++ b/DesignDocs/VariableData/PC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{633B04EA-67D1-476D-832B-4D5CE11370A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F36238-6132-4C3C-8702-DEEEEE44A09F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="10515" xr2:uid="{3B09B151-71C3-4052-98B3-CE152326DBC4}"/>
   </bookViews>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name_kor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,10 @@
   </si>
   <si>
     <t>11_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameKor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +439,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,22 +452,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -475,10 +475,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>150</v>
@@ -501,10 +501,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>150</v>
